--- a/input/dynamic_data/season_17/forecasting_method/average/improved/forecast_point_GW5.xlsx
+++ b/input/dynamic_data/season_17/forecasting_method/average/improved/forecast_point_GW5.xlsx
@@ -559,37 +559,37 @@
         <v>12.0</v>
       </c>
       <c r="B13" t="n">
-        <v>1.4030153289026428</v>
+        <v>0.0</v>
       </c>
       <c r="C13" t="n">
-        <v>1.7491016183380463</v>
+        <v>0.0</v>
       </c>
       <c r="D13" t="n">
-        <v>1.525642804716215</v>
+        <v>0.0</v>
       </c>
       <c r="E13" t="n">
-        <v>1.5764024568198685</v>
+        <v>0.0</v>
       </c>
       <c r="F13" t="n">
-        <v>1.3675997774872586</v>
+        <v>0.0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.6435344147157278</v>
+        <v>0.0</v>
       </c>
       <c r="H13" t="n">
-        <v>1.6216241981923425</v>
+        <v>0.0</v>
       </c>
       <c r="I13" t="n">
-        <v>1.4030153289026428</v>
+        <v>0.0</v>
       </c>
       <c r="J13" t="n">
-        <v>1.7491016183380463</v>
+        <v>0.0</v>
       </c>
       <c r="K13" t="n">
-        <v>1.525642804716215</v>
+        <v>0.0</v>
       </c>
       <c r="L13" t="n">
-        <v>1.5764024568198685</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="14">
@@ -6601,37 +6601,37 @@
         <v>171.0</v>
       </c>
       <c r="B172" t="n">
-        <v>0.5153153683969867</v>
+        <v>0.0</v>
       </c>
       <c r="C172" t="n">
-        <v>0.5328137279317126</v>
+        <v>0.0</v>
       </c>
       <c r="D172" t="n">
-        <v>0.44110554661895846</v>
+        <v>0.0</v>
       </c>
       <c r="E172" t="n">
-        <v>0.5158412503997406</v>
+        <v>0.0</v>
       </c>
       <c r="F172" t="n">
-        <v>0.5283838501213337</v>
+        <v>0.0</v>
       </c>
       <c r="G172" t="n">
-        <v>0.5207812042402667</v>
+        <v>0.0</v>
       </c>
       <c r="H172" t="n">
-        <v>0.47086103357824927</v>
+        <v>0.0</v>
       </c>
       <c r="I172" t="n">
-        <v>0.5153153683969867</v>
+        <v>0.0</v>
       </c>
       <c r="J172" t="n">
-        <v>0.5328137279317126</v>
+        <v>0.0</v>
       </c>
       <c r="K172" t="n">
-        <v>0.44110554661895846</v>
+        <v>0.0</v>
       </c>
       <c r="L172" t="n">
-        <v>0.5158412503997406</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="173">
@@ -7969,37 +7969,37 @@
         <v>207.0</v>
       </c>
       <c r="B208" t="n">
-        <v>2.555490485806271</v>
+        <v>0.0</v>
       </c>
       <c r="C208" t="n">
-        <v>2.130070580516853</v>
+        <v>0.0</v>
       </c>
       <c r="D208" t="n">
-        <v>2.4719251512210882</v>
+        <v>0.0</v>
       </c>
       <c r="E208" t="n">
-        <v>2.1264282768429705</v>
+        <v>0.0</v>
       </c>
       <c r="F208" t="n">
-        <v>2.458563393231177</v>
+        <v>0.0</v>
       </c>
       <c r="G208" t="n">
-        <v>2.4423401187158786</v>
+        <v>0.0</v>
       </c>
       <c r="H208" t="n">
-        <v>2.354760542330789</v>
+        <v>0.0</v>
       </c>
       <c r="I208" t="n">
-        <v>2.555490485806271</v>
+        <v>0.0</v>
       </c>
       <c r="J208" t="n">
-        <v>2.130070580516853</v>
+        <v>0.0</v>
       </c>
       <c r="K208" t="n">
-        <v>2.4719251512210882</v>
+        <v>0.0</v>
       </c>
       <c r="L208" t="n">
-        <v>2.1264282768429705</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="209">
@@ -8197,37 +8197,37 @@
         <v>213.0</v>
       </c>
       <c r="B214" t="n">
-        <v>2.2614866521820556</v>
+        <v>0.0</v>
       </c>
       <c r="C214" t="n">
-        <v>1.885010416904259</v>
+        <v>0.0</v>
       </c>
       <c r="D214" t="n">
-        <v>2.1875353344999264</v>
+        <v>0.0</v>
       </c>
       <c r="E214" t="n">
-        <v>1.8817871526473853</v>
+        <v>0.0</v>
       </c>
       <c r="F214" t="n">
-        <v>2.175710818810392</v>
+        <v>0.0</v>
       </c>
       <c r="G214" t="n">
-        <v>2.1613539980846608</v>
+        <v>0.0</v>
       </c>
       <c r="H214" t="n">
-        <v>2.0838502687228395</v>
+        <v>0.0</v>
       </c>
       <c r="I214" t="n">
-        <v>2.2614866521820556</v>
+        <v>0.0</v>
       </c>
       <c r="J214" t="n">
-        <v>1.885010416904259</v>
+        <v>0.0</v>
       </c>
       <c r="K214" t="n">
-        <v>2.1875353344999264</v>
+        <v>0.0</v>
       </c>
       <c r="L214" t="n">
-        <v>1.8817871526473853</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="215">
@@ -8425,37 +8425,37 @@
         <v>219.0</v>
       </c>
       <c r="B220" t="n">
-        <v>0.4871480616133372</v>
+        <v>0.0</v>
       </c>
       <c r="C220" t="n">
-        <v>0.5690768301305229</v>
+        <v>0.0</v>
       </c>
       <c r="D220" t="n">
-        <v>0.5498920098596646</v>
+        <v>0.0</v>
       </c>
       <c r="E220" t="n">
-        <v>0.6112308786314773</v>
+        <v>0.0</v>
       </c>
       <c r="F220" t="n">
-        <v>0.5461605015384204</v>
+        <v>0.0</v>
       </c>
       <c r="G220" t="n">
-        <v>0.5028956598465538</v>
+        <v>0.0</v>
       </c>
       <c r="H220" t="n">
-        <v>0.5662941962656866</v>
+        <v>0.0</v>
       </c>
       <c r="I220" t="n">
-        <v>0.4871480616133372</v>
+        <v>0.0</v>
       </c>
       <c r="J220" t="n">
-        <v>0.5690768301305229</v>
+        <v>0.0</v>
       </c>
       <c r="K220" t="n">
-        <v>0.5498920098596646</v>
+        <v>0.0</v>
       </c>
       <c r="L220" t="n">
-        <v>0.6112308786314773</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="221">
@@ -9185,37 +9185,37 @@
         <v>239.0</v>
       </c>
       <c r="B240" t="n">
-        <v>1.0764797041842031</v>
+        <v>0.0</v>
       </c>
       <c r="C240" t="n">
-        <v>1.2342803829779359</v>
+        <v>0.0</v>
       </c>
       <c r="D240" t="n">
-        <v>1.2270100892150935</v>
+        <v>0.0</v>
       </c>
       <c r="E240" t="n">
-        <v>1.1038655882860424</v>
+        <v>0.0</v>
       </c>
       <c r="F240" t="n">
-        <v>1.0821873488511895</v>
+        <v>0.0</v>
       </c>
       <c r="G240" t="n">
-        <v>1.2516093877913506</v>
+        <v>0.0</v>
       </c>
       <c r="H240" t="n">
-        <v>1.218351059239848</v>
+        <v>0.0</v>
       </c>
       <c r="I240" t="n">
-        <v>1.0764797041842031</v>
+        <v>0.0</v>
       </c>
       <c r="J240" t="n">
-        <v>1.2342803829779359</v>
+        <v>0.0</v>
       </c>
       <c r="K240" t="n">
-        <v>1.2270100892150935</v>
+        <v>0.0</v>
       </c>
       <c r="L240" t="n">
-        <v>1.1038655882860424</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="241">
@@ -9223,37 +9223,37 @@
         <v>240.0</v>
       </c>
       <c r="B241" t="n">
-        <v>0.3513579091922795</v>
+        <v>0.0</v>
       </c>
       <c r="C241" t="n">
-        <v>0.40286330809072535</v>
+        <v>0.0</v>
       </c>
       <c r="D241" t="n">
-        <v>0.40049031842283206</v>
+        <v>0.0</v>
       </c>
       <c r="E241" t="n">
-        <v>0.36029653287650065</v>
+        <v>0.0</v>
       </c>
       <c r="F241" t="n">
-        <v>0.3532208575496055</v>
+        <v>0.0</v>
       </c>
       <c r="G241" t="n">
-        <v>0.4085194137060547</v>
+        <v>0.0</v>
       </c>
       <c r="H241" t="n">
-        <v>0.3976640517910416</v>
+        <v>0.0</v>
       </c>
       <c r="I241" t="n">
-        <v>0.3513579091922795</v>
+        <v>0.0</v>
       </c>
       <c r="J241" t="n">
-        <v>0.40286330809072535</v>
+        <v>0.0</v>
       </c>
       <c r="K241" t="n">
-        <v>0.40049031842283206</v>
+        <v>0.0</v>
       </c>
       <c r="L241" t="n">
-        <v>0.36029653287650065</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="242">
@@ -9375,37 +9375,37 @@
         <v>244.0</v>
       </c>
       <c r="B245" t="n">
-        <v>2.216732163297027</v>
+        <v>0.0</v>
       </c>
       <c r="C245" t="n">
-        <v>2.5416819405315763</v>
+        <v>0.0</v>
       </c>
       <c r="D245" t="n">
-        <v>2.5267106466390232</v>
+        <v>0.0</v>
       </c>
       <c r="E245" t="n">
-        <v>2.2731263246294766</v>
+        <v>0.0</v>
       </c>
       <c r="F245" t="n">
-        <v>2.2284855846209966</v>
+        <v>0.0</v>
       </c>
       <c r="G245" t="n">
-        <v>2.5773665541648048</v>
+        <v>0.0</v>
       </c>
       <c r="H245" t="n">
-        <v>2.5088796088828342</v>
+        <v>0.0</v>
       </c>
       <c r="I245" t="n">
-        <v>2.216732163297027</v>
+        <v>0.0</v>
       </c>
       <c r="J245" t="n">
-        <v>2.5416819405315763</v>
+        <v>0.0</v>
       </c>
       <c r="K245" t="n">
-        <v>2.5267106466390232</v>
+        <v>0.0</v>
       </c>
       <c r="L245" t="n">
-        <v>2.2731263246294766</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="246">
@@ -9565,37 +9565,37 @@
         <v>249.0</v>
       </c>
       <c r="B250" t="n">
-        <v>4.348594917532032</v>
+        <v>0.0</v>
       </c>
       <c r="C250" t="n">
-        <v>4.986053503252018</v>
+        <v>0.0</v>
       </c>
       <c r="D250" t="n">
-        <v>4.956684103733222</v>
+        <v>0.0</v>
       </c>
       <c r="E250" t="n">
-        <v>4.459224143475154</v>
+        <v>0.0</v>
       </c>
       <c r="F250" t="n">
-        <v>4.371651770804287</v>
+        <v>0.0</v>
       </c>
       <c r="G250" t="n">
-        <v>5.05605651581658</v>
+        <v>0.0</v>
       </c>
       <c r="H250" t="n">
-        <v>4.9217047041265705</v>
+        <v>0.0</v>
       </c>
       <c r="I250" t="n">
-        <v>4.348594917532032</v>
+        <v>0.0</v>
       </c>
       <c r="J250" t="n">
-        <v>4.986053503252018</v>
+        <v>0.0</v>
       </c>
       <c r="K250" t="n">
-        <v>4.956684103733222</v>
+        <v>0.0</v>
       </c>
       <c r="L250" t="n">
-        <v>4.459224143475154</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="251">
@@ -10553,37 +10553,37 @@
         <v>275.0</v>
       </c>
       <c r="B276" t="n">
-        <v>0.4460621272722165</v>
+        <v>0.0</v>
       </c>
       <c r="C276" t="n">
-        <v>0.5138321529273482</v>
+        <v>0.0</v>
       </c>
       <c r="D276" t="n">
-        <v>0.5233273816665402</v>
+        <v>0.0</v>
       </c>
       <c r="E276" t="n">
-        <v>0.5248052806539486</v>
+        <v>0.0</v>
       </c>
       <c r="F276" t="n">
-        <v>0.4995373825101275</v>
+        <v>0.0</v>
       </c>
       <c r="G276" t="n">
-        <v>0.5234005144694373</v>
+        <v>0.0</v>
       </c>
       <c r="H276" t="n">
-        <v>0.44148249842919</v>
+        <v>0.0</v>
       </c>
       <c r="I276" t="n">
-        <v>0.4460621272722165</v>
+        <v>0.0</v>
       </c>
       <c r="J276" t="n">
-        <v>0.5138321529273482</v>
+        <v>0.0</v>
       </c>
       <c r="K276" t="n">
-        <v>0.5233273816665402</v>
+        <v>0.0</v>
       </c>
       <c r="L276" t="n">
-        <v>0.5248052806539486</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="277">
@@ -14733,37 +14733,37 @@
         <v>385.0</v>
       </c>
       <c r="B386" t="n">
-        <v>1.7792702584337297</v>
+        <v>0.0</v>
       </c>
       <c r="C386" t="n">
-        <v>1.421822946930009</v>
+        <v>0.0</v>
       </c>
       <c r="D386" t="n">
-        <v>1.616079097886193</v>
+        <v>0.0</v>
       </c>
       <c r="E386" t="n">
-        <v>1.5997259158384802</v>
+        <v>0.0</v>
       </c>
       <c r="F386" t="n">
-        <v>1.622812695316146</v>
+        <v>0.0</v>
       </c>
       <c r="G386" t="n">
-        <v>1.5808494154967552</v>
+        <v>0.0</v>
       </c>
       <c r="H386" t="n">
-        <v>1.6380688822715783</v>
+        <v>0.0</v>
       </c>
       <c r="I386" t="n">
-        <v>1.7792702584337297</v>
+        <v>0.0</v>
       </c>
       <c r="J386" t="n">
-        <v>1.421822946930009</v>
+        <v>0.0</v>
       </c>
       <c r="K386" t="n">
-        <v>1.616079097886193</v>
+        <v>0.0</v>
       </c>
       <c r="L386" t="n">
-        <v>1.5997259158384802</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="387">
@@ -15265,37 +15265,37 @@
         <v>399.0</v>
       </c>
       <c r="B400" t="n">
-        <v>6.055246202893197</v>
+        <v>0.0</v>
       </c>
       <c r="C400" t="n">
-        <v>5.787926962300429</v>
+        <v>0.0</v>
       </c>
       <c r="D400" t="n">
-        <v>6.2512584494389225</v>
+        <v>0.0</v>
       </c>
       <c r="E400" t="n">
-        <v>5.4352740488173605</v>
+        <v>0.0</v>
       </c>
       <c r="F400" t="n">
-        <v>5.245308811887366</v>
+        <v>0.0</v>
       </c>
       <c r="G400" t="n">
-        <v>6.514005093849479</v>
+        <v>0.0</v>
       </c>
       <c r="H400" t="n">
-        <v>5.955643360625111</v>
+        <v>0.0</v>
       </c>
       <c r="I400" t="n">
-        <v>6.055246202893197</v>
+        <v>0.0</v>
       </c>
       <c r="J400" t="n">
-        <v>5.787926962300429</v>
+        <v>0.0</v>
       </c>
       <c r="K400" t="n">
-        <v>6.2512584494389225</v>
+        <v>0.0</v>
       </c>
       <c r="L400" t="n">
-        <v>5.4352740488173605</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="401">
@@ -16329,37 +16329,37 @@
         <v>427.0</v>
       </c>
       <c r="B428" t="n">
-        <v>8.980023922359385</v>
+        <v>0.0</v>
       </c>
       <c r="C428" t="n">
-        <v>9.464565617530589</v>
+        <v>0.0</v>
       </c>
       <c r="D428" t="n">
-        <v>9.8653837733779</v>
+        <v>0.0</v>
       </c>
       <c r="E428" t="n">
-        <v>8.221389090083472</v>
+        <v>0.0</v>
       </c>
       <c r="F428" t="n">
-        <v>9.851739083489583</v>
+        <v>0.0</v>
       </c>
       <c r="G428" t="n">
-        <v>8.166559908844285</v>
+        <v>0.0</v>
       </c>
       <c r="H428" t="n">
-        <v>8.27407784435656</v>
+        <v>0.0</v>
       </c>
       <c r="I428" t="n">
-        <v>8.980023922359385</v>
+        <v>0.0</v>
       </c>
       <c r="J428" t="n">
-        <v>9.464565617530589</v>
+        <v>0.0</v>
       </c>
       <c r="K428" t="n">
-        <v>9.8653837733779</v>
+        <v>0.0</v>
       </c>
       <c r="L428" t="n">
-        <v>8.221389090083472</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="429">
@@ -18723,37 +18723,37 @@
         <v>490.0</v>
       </c>
       <c r="B491" t="n">
-        <v>0.9399742326357459</v>
+        <v>0.0</v>
       </c>
       <c r="C491" t="n">
-        <v>0.9085198720885731</v>
+        <v>0.0</v>
       </c>
       <c r="D491" t="n">
-        <v>1.0135989316442238</v>
+        <v>0.0</v>
       </c>
       <c r="E491" t="n">
-        <v>0.9272547491342805</v>
+        <v>0.0</v>
       </c>
       <c r="F491" t="n">
-        <v>0.8105610700217858</v>
+        <v>0.0</v>
       </c>
       <c r="G491" t="n">
-        <v>0.84555561102672</v>
+        <v>0.0</v>
       </c>
       <c r="H491" t="n">
-        <v>0.975694008534504</v>
+        <v>0.0</v>
       </c>
       <c r="I491" t="n">
-        <v>0.9399742326357459</v>
+        <v>0.0</v>
       </c>
       <c r="J491" t="n">
-        <v>0.9085198720885731</v>
+        <v>0.0</v>
       </c>
       <c r="K491" t="n">
-        <v>1.0135989316442238</v>
+        <v>0.0</v>
       </c>
       <c r="L491" t="n">
-        <v>0.9272547491342805</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="492">
@@ -20091,37 +20091,37 @@
         <v>526.0</v>
       </c>
       <c r="B527" t="n">
-        <v>0.4640220011582796</v>
+        <v>0.0</v>
       </c>
       <c r="C527" t="n">
-        <v>0.41399003073852086</v>
+        <v>0.0</v>
       </c>
       <c r="D527" t="n">
-        <v>0.4767079002503764</v>
+        <v>0.0</v>
       </c>
       <c r="E527" t="n">
-        <v>0.47675431208225266</v>
+        <v>0.0</v>
       </c>
       <c r="F527" t="n">
-        <v>0.47071462634744154</v>
+        <v>0.0</v>
       </c>
       <c r="G527" t="n">
-        <v>0.4870646828970002</v>
+        <v>0.0</v>
       </c>
       <c r="H527" t="n">
-        <v>0.4086777102330829</v>
+        <v>0.0</v>
       </c>
       <c r="I527" t="n">
-        <v>0.4640220011582796</v>
+        <v>0.0</v>
       </c>
       <c r="J527" t="n">
-        <v>0.41399003073852086</v>
+        <v>0.0</v>
       </c>
       <c r="K527" t="n">
-        <v>0.4767079002503764</v>
+        <v>0.0</v>
       </c>
       <c r="L527" t="n">
-        <v>0.47675431208225266</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="528">
@@ -20281,37 +20281,37 @@
         <v>531.0</v>
       </c>
       <c r="B532" t="n">
-        <v>0.22600259283197766</v>
+        <v>0.0</v>
       </c>
       <c r="C532" t="n">
-        <v>0.201634448625166</v>
+        <v>0.0</v>
       </c>
       <c r="D532" t="n">
-        <v>0.23218127849787726</v>
+        <v>0.0</v>
       </c>
       <c r="E532" t="n">
-        <v>0.23220388344832346</v>
+        <v>0.0</v>
       </c>
       <c r="F532" t="n">
-        <v>0.22926224569720308</v>
+        <v>0.0</v>
       </c>
       <c r="G532" t="n">
-        <v>0.23722556460002656</v>
+        <v>0.0</v>
       </c>
       <c r="H532" t="n">
-        <v>0.19904707517048809</v>
+        <v>0.0</v>
       </c>
       <c r="I532" t="n">
-        <v>0.22600259283197766</v>
+        <v>0.0</v>
       </c>
       <c r="J532" t="n">
-        <v>0.201634448625166</v>
+        <v>0.0</v>
       </c>
       <c r="K532" t="n">
-        <v>0.23218127849787726</v>
+        <v>0.0</v>
       </c>
       <c r="L532" t="n">
-        <v>0.23220388344832346</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="533">
@@ -20661,37 +20661,37 @@
         <v>541.0</v>
       </c>
       <c r="B542" t="n">
-        <v>4.209580352988542</v>
+        <v>0.0</v>
       </c>
       <c r="C542" t="n">
-        <v>4.849140071416</v>
+        <v>0.0</v>
       </c>
       <c r="D542" t="n">
-        <v>4.938748504644948</v>
+        <v>0.0</v>
       </c>
       <c r="E542" t="n">
-        <v>4.952695742396651</v>
+        <v>0.0</v>
       </c>
       <c r="F542" t="n">
-        <v>4.714237372846187</v>
+        <v>0.0</v>
       </c>
       <c r="G542" t="n">
-        <v>4.939438673998974</v>
+        <v>0.0</v>
       </c>
       <c r="H542" t="n">
-        <v>4.166361450457014</v>
+        <v>0.0</v>
       </c>
       <c r="I542" t="n">
-        <v>4.209580352988542</v>
+        <v>0.0</v>
       </c>
       <c r="J542" t="n">
-        <v>4.849140071416</v>
+        <v>0.0</v>
       </c>
       <c r="K542" t="n">
-        <v>4.938748504644948</v>
+        <v>0.0</v>
       </c>
       <c r="L542" t="n">
-        <v>4.952695742396651</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="543">
@@ -21801,37 +21801,37 @@
         <v>571.0</v>
       </c>
       <c r="B572" t="n">
-        <v>1.994873852339394</v>
+        <v>0.0</v>
       </c>
       <c r="C572" t="n">
-        <v>2.0949225733359715</v>
+        <v>0.0</v>
       </c>
       <c r="D572" t="n">
-        <v>1.8091703233995942</v>
+        <v>0.0</v>
       </c>
       <c r="E572" t="n">
-        <v>2.0909601579755432</v>
+        <v>0.0</v>
       </c>
       <c r="F572" t="n">
-        <v>1.9563319302672422</v>
+        <v>0.0</v>
       </c>
       <c r="G572" t="n">
-        <v>1.8217250321580778</v>
+        <v>0.0</v>
       </c>
       <c r="H572" t="n">
-        <v>2.0708999481150707</v>
+        <v>0.0</v>
       </c>
       <c r="I572" t="n">
-        <v>1.994873852339394</v>
+        <v>0.0</v>
       </c>
       <c r="J572" t="n">
-        <v>2.0949225733359715</v>
+        <v>0.0</v>
       </c>
       <c r="K572" t="n">
-        <v>1.8091703233995942</v>
+        <v>0.0</v>
       </c>
       <c r="L572" t="n">
-        <v>2.0909601579755432</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="573">
@@ -22447,37 +22447,37 @@
         <v>588.0</v>
       </c>
       <c r="B589" t="n">
-        <v>2.118180281668567</v>
+        <v>0.0</v>
       </c>
       <c r="C589" t="n">
-        <v>2.119008028791604</v>
+        <v>0.0</v>
       </c>
       <c r="D589" t="n">
-        <v>1.8473933911995546</v>
+        <v>0.0</v>
       </c>
       <c r="E589" t="n">
-        <v>2.1389732663196614</v>
+        <v>0.0</v>
       </c>
       <c r="F589" t="n">
-        <v>2.190808764953723</v>
+        <v>0.0</v>
       </c>
       <c r="G589" t="n">
-        <v>2.169702233477515</v>
+        <v>0.0</v>
       </c>
       <c r="H589" t="n">
-        <v>2.134811249544305</v>
+        <v>0.0</v>
       </c>
       <c r="I589" t="n">
-        <v>2.118180281668567</v>
+        <v>0.0</v>
       </c>
       <c r="J589" t="n">
-        <v>2.119008028791604</v>
+        <v>0.0</v>
       </c>
       <c r="K589" t="n">
-        <v>1.8473933911995546</v>
+        <v>0.0</v>
       </c>
       <c r="L589" t="n">
-        <v>2.1389732663196614</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="590">
